--- a/data/134/DEUSTATIS/Local units - construction.xlsx
+++ b/data/134/DEUSTATIS/Local units - construction.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="44">
   <si>
     <t>Local units, persons employed, remunerations, hours worked,
 turnover in the main construction industry (local units with
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
   </si>
   <si>
     <t>Months</t>
@@ -142,7 +145,7 @@
     <t>From January 2007 including persons employed in other areas.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:35:12</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 04:10:56</t>
   </si>
 </sst>
 </file>
@@ -822,7 +825,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="975">
+  <cellXfs count="1047">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" wrapText="true"/>
@@ -1506,16 +1509,112 @@
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
@@ -2798,6 +2897,54 @@
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -3430,6 +3577,54 @@
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -4062,6 +4257,54 @@
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -4072,6 +4315,54 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
@@ -4738,1026 +5029,1102 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="343">
+      <c r="A5" t="s" s="367">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="344">
+      <c r="B5" t="s" s="368">
         <v>5</v>
       </c>
-      <c r="C5" t="s" s="345">
+      <c r="C5" t="s" s="369">
         <v>6</v>
       </c>
-      <c r="D5" s="346"/>
-      <c r="E5" s="347"/>
-      <c r="F5" s="348"/>
-      <c r="G5" s="349"/>
-      <c r="H5" s="350"/>
-      <c r="I5" s="351"/>
-      <c r="J5" s="352"/>
-      <c r="K5" s="353"/>
-      <c r="L5" s="354"/>
-      <c r="M5" s="355"/>
-      <c r="N5" s="356"/>
-      <c r="O5" s="357"/>
-      <c r="P5" s="358"/>
-      <c r="Q5" s="359"/>
-      <c r="R5" s="360"/>
-      <c r="S5" s="361"/>
-      <c r="T5" s="362"/>
-      <c r="U5" s="363"/>
-      <c r="V5" s="364"/>
-      <c r="W5" s="365"/>
-      <c r="X5" s="366"/>
-      <c r="Y5" s="367"/>
-      <c r="Z5" s="368"/>
-      <c r="AA5" s="369"/>
-      <c r="AB5" s="370"/>
-      <c r="AC5" s="371"/>
-      <c r="AD5" s="372"/>
-      <c r="AE5" s="373"/>
-      <c r="AF5" s="374"/>
-      <c r="AG5" s="375"/>
-      <c r="AH5" s="376"/>
-      <c r="AI5" s="377"/>
-      <c r="AJ5" s="378"/>
-      <c r="AK5" s="379"/>
-      <c r="AL5" s="380"/>
-      <c r="AM5" s="381"/>
-      <c r="AN5" s="382"/>
-      <c r="AO5" s="383"/>
-      <c r="AP5" s="384"/>
-      <c r="AQ5" s="385"/>
-      <c r="AR5" s="386"/>
-      <c r="AS5" s="387"/>
-      <c r="AT5" s="388"/>
-      <c r="AU5" s="389"/>
-      <c r="AV5" s="390"/>
-      <c r="AW5" s="391"/>
-      <c r="AX5" s="392"/>
-      <c r="AY5" s="393"/>
-      <c r="AZ5" s="394"/>
-      <c r="BA5" s="395"/>
-      <c r="BB5" s="396"/>
-      <c r="BC5" s="397"/>
-      <c r="BD5" s="398"/>
-      <c r="BE5" s="399"/>
-      <c r="BF5" s="400"/>
-      <c r="BG5" s="401"/>
-      <c r="BH5" s="402"/>
-      <c r="BI5" s="403"/>
-      <c r="BJ5" s="404"/>
-      <c r="BK5" s="405"/>
-      <c r="BL5" s="406"/>
-      <c r="BM5" s="407"/>
-      <c r="BN5" s="408"/>
-      <c r="BO5" s="409"/>
-      <c r="BP5" s="410"/>
-      <c r="BQ5" s="411"/>
-      <c r="BR5" s="412"/>
-      <c r="BS5" s="413"/>
-      <c r="BT5" s="414"/>
-      <c r="BU5" s="415"/>
-      <c r="BV5" s="416"/>
-      <c r="BW5" s="417"/>
-      <c r="BX5" s="418"/>
-      <c r="BY5" s="419"/>
-      <c r="BZ5" s="420"/>
-      <c r="CA5" s="421"/>
-      <c r="CB5" s="422"/>
-      <c r="CC5" s="423"/>
-      <c r="CD5" s="424"/>
-      <c r="CE5" s="425"/>
-      <c r="CF5" s="426"/>
-      <c r="CG5" s="427"/>
-      <c r="CH5" s="428"/>
-      <c r="CI5" s="429"/>
-      <c r="CJ5" s="430"/>
-      <c r="CK5" s="431"/>
-      <c r="CL5" s="432"/>
-      <c r="CM5" s="433"/>
-      <c r="CN5" s="434"/>
-      <c r="CO5" s="435"/>
-      <c r="CP5" s="436"/>
-      <c r="CQ5" s="437"/>
-      <c r="CR5" s="438"/>
-      <c r="CS5" s="439"/>
-      <c r="CT5" s="440"/>
-      <c r="CU5" s="441"/>
-      <c r="CV5" s="442"/>
-      <c r="CW5" s="443"/>
-      <c r="CX5" s="444"/>
-      <c r="CY5" s="445"/>
-      <c r="CZ5" s="446"/>
-      <c r="DA5" s="447"/>
-      <c r="DB5" s="448"/>
-      <c r="DC5" s="449"/>
-      <c r="DD5" s="450"/>
-      <c r="DE5" s="451"/>
-      <c r="DF5" s="452"/>
-      <c r="DG5" s="453"/>
-      <c r="DH5" s="454"/>
-      <c r="DI5" s="455"/>
-      <c r="DJ5" s="456"/>
-      <c r="DK5" s="457"/>
-      <c r="DL5" s="458"/>
-      <c r="DM5" s="459"/>
-      <c r="DN5" s="460"/>
-      <c r="DO5" s="461"/>
-      <c r="DP5" s="462"/>
-      <c r="DQ5" s="463"/>
-      <c r="DR5" s="464"/>
-      <c r="DS5" s="465"/>
-      <c r="DT5" s="466"/>
-      <c r="DU5" s="467"/>
-      <c r="DV5" s="468"/>
-      <c r="DW5" s="469"/>
-      <c r="DX5" s="470"/>
-      <c r="DY5" s="471"/>
-      <c r="DZ5" s="472"/>
-      <c r="EA5" s="473"/>
-      <c r="EB5" s="474"/>
-      <c r="EC5" s="475"/>
-      <c r="ED5" s="476"/>
-      <c r="EE5" s="477"/>
-      <c r="EF5" s="478"/>
-      <c r="EG5" s="479"/>
-      <c r="EH5" s="480"/>
-      <c r="EI5" s="481"/>
-      <c r="EJ5" s="482"/>
-      <c r="EK5" s="483"/>
-      <c r="EL5" s="484"/>
-      <c r="EM5" s="485"/>
-      <c r="EN5" s="486"/>
-      <c r="EO5" s="487"/>
-      <c r="EP5" s="488"/>
-      <c r="EQ5" s="489"/>
-      <c r="ER5" s="490"/>
-      <c r="ES5" s="491"/>
-      <c r="ET5" s="492"/>
-      <c r="EU5" s="493"/>
-      <c r="EV5" s="494"/>
-      <c r="EW5" s="495"/>
-      <c r="EX5" s="496"/>
-      <c r="EY5" s="497"/>
-      <c r="EZ5" s="498"/>
-      <c r="FA5" s="499"/>
-      <c r="FB5" s="500"/>
+      <c r="D5" s="370"/>
+      <c r="E5" s="371"/>
+      <c r="F5" s="372"/>
+      <c r="G5" s="373"/>
+      <c r="H5" s="374"/>
+      <c r="I5" s="375"/>
+      <c r="J5" s="376"/>
+      <c r="K5" s="377"/>
+      <c r="L5" s="378"/>
+      <c r="M5" s="379"/>
+      <c r="N5" s="380"/>
+      <c r="O5" s="381"/>
+      <c r="P5" s="382"/>
+      <c r="Q5" s="383"/>
+      <c r="R5" s="384"/>
+      <c r="S5" s="385"/>
+      <c r="T5" s="386"/>
+      <c r="U5" s="387"/>
+      <c r="V5" s="388"/>
+      <c r="W5" s="389"/>
+      <c r="X5" s="390"/>
+      <c r="Y5" s="391"/>
+      <c r="Z5" s="392"/>
+      <c r="AA5" s="393"/>
+      <c r="AB5" s="394"/>
+      <c r="AC5" s="395"/>
+      <c r="AD5" s="396"/>
+      <c r="AE5" s="397"/>
+      <c r="AF5" s="398"/>
+      <c r="AG5" s="399"/>
+      <c r="AH5" s="400"/>
+      <c r="AI5" s="401"/>
+      <c r="AJ5" s="402"/>
+      <c r="AK5" s="403"/>
+      <c r="AL5" s="404"/>
+      <c r="AM5" s="405"/>
+      <c r="AN5" s="406"/>
+      <c r="AO5" s="407"/>
+      <c r="AP5" s="408"/>
+      <c r="AQ5" s="409"/>
+      <c r="AR5" s="410"/>
+      <c r="AS5" s="411"/>
+      <c r="AT5" s="412"/>
+      <c r="AU5" s="413"/>
+      <c r="AV5" s="414"/>
+      <c r="AW5" s="415"/>
+      <c r="AX5" s="416"/>
+      <c r="AY5" s="417"/>
+      <c r="AZ5" s="418"/>
+      <c r="BA5" s="419"/>
+      <c r="BB5" s="420"/>
+      <c r="BC5" s="421"/>
+      <c r="BD5" s="422"/>
+      <c r="BE5" s="423"/>
+      <c r="BF5" s="424"/>
+      <c r="BG5" s="425"/>
+      <c r="BH5" s="426"/>
+      <c r="BI5" s="427"/>
+      <c r="BJ5" s="428"/>
+      <c r="BK5" s="429"/>
+      <c r="BL5" s="430"/>
+      <c r="BM5" s="431"/>
+      <c r="BN5" s="432"/>
+      <c r="BO5" s="433"/>
+      <c r="BP5" s="434"/>
+      <c r="BQ5" s="435"/>
+      <c r="BR5" s="436"/>
+      <c r="BS5" s="437"/>
+      <c r="BT5" s="438"/>
+      <c r="BU5" s="439"/>
+      <c r="BV5" s="440"/>
+      <c r="BW5" s="441"/>
+      <c r="BX5" s="442"/>
+      <c r="BY5" s="443"/>
+      <c r="BZ5" s="444"/>
+      <c r="CA5" s="445"/>
+      <c r="CB5" s="446"/>
+      <c r="CC5" s="447"/>
+      <c r="CD5" s="448"/>
+      <c r="CE5" s="449"/>
+      <c r="CF5" s="450"/>
+      <c r="CG5" s="451"/>
+      <c r="CH5" s="452"/>
+      <c r="CI5" s="453"/>
+      <c r="CJ5" s="454"/>
+      <c r="CK5" s="455"/>
+      <c r="CL5" s="456"/>
+      <c r="CM5" s="457"/>
+      <c r="CN5" s="458"/>
+      <c r="CO5" s="459"/>
+      <c r="CP5" s="460"/>
+      <c r="CQ5" s="461"/>
+      <c r="CR5" s="462"/>
+      <c r="CS5" s="463"/>
+      <c r="CT5" s="464"/>
+      <c r="CU5" s="465"/>
+      <c r="CV5" s="466"/>
+      <c r="CW5" s="467"/>
+      <c r="CX5" s="468"/>
+      <c r="CY5" s="469"/>
+      <c r="CZ5" s="470"/>
+      <c r="DA5" s="471"/>
+      <c r="DB5" s="472"/>
+      <c r="DC5" s="473"/>
+      <c r="DD5" s="474"/>
+      <c r="DE5" s="475"/>
+      <c r="DF5" s="476"/>
+      <c r="DG5" s="477"/>
+      <c r="DH5" s="478"/>
+      <c r="DI5" s="479"/>
+      <c r="DJ5" s="480"/>
+      <c r="DK5" s="481"/>
+      <c r="DL5" s="482"/>
+      <c r="DM5" s="483"/>
+      <c r="DN5" s="484"/>
+      <c r="DO5" s="485"/>
+      <c r="DP5" s="486"/>
+      <c r="DQ5" s="487"/>
+      <c r="DR5" s="488"/>
+      <c r="DS5" s="489"/>
+      <c r="DT5" s="490"/>
+      <c r="DU5" s="491"/>
+      <c r="DV5" s="492"/>
+      <c r="DW5" s="493"/>
+      <c r="DX5" s="494"/>
+      <c r="DY5" s="495"/>
+      <c r="DZ5" s="496"/>
+      <c r="EA5" s="497"/>
+      <c r="EB5" s="498"/>
+      <c r="EC5" s="499"/>
+      <c r="ED5" s="500"/>
+      <c r="EE5" s="501"/>
+      <c r="EF5" s="502"/>
+      <c r="EG5" s="503"/>
+      <c r="EH5" s="504"/>
+      <c r="EI5" s="505"/>
+      <c r="EJ5" s="506"/>
+      <c r="EK5" s="507"/>
+      <c r="EL5" s="508"/>
+      <c r="EM5" s="509"/>
+      <c r="EN5" s="510"/>
+      <c r="EO5" s="511"/>
+      <c r="EP5" s="512"/>
+      <c r="EQ5" s="513"/>
+      <c r="ER5" s="514"/>
+      <c r="ES5" s="515"/>
+      <c r="ET5" s="516"/>
+      <c r="EU5" s="517"/>
+      <c r="EV5" s="518"/>
+      <c r="EW5" s="519"/>
+      <c r="EX5" s="520"/>
+      <c r="EY5" s="521"/>
+      <c r="EZ5" s="522"/>
+      <c r="FA5" s="523"/>
+      <c r="FB5" s="524"/>
+      <c r="FC5" s="525"/>
+      <c r="FD5" s="526"/>
+      <c r="FE5" s="527"/>
+      <c r="FF5" s="528"/>
+      <c r="FG5" s="529"/>
+      <c r="FH5" s="530"/>
+      <c r="FI5" s="531"/>
+      <c r="FJ5" s="532"/>
+      <c r="FK5" s="533"/>
+      <c r="FL5" s="534"/>
+      <c r="FM5" s="535"/>
+      <c r="FN5" s="536"/>
     </row>
     <row r="6">
-      <c r="A6" s="501"/>
-      <c r="B6" s="502"/>
-      <c r="C6" t="s" s="503">
+      <c r="A6" s="537"/>
+      <c r="B6" s="538"/>
+      <c r="C6" t="s" s="539">
         <v>7</v>
       </c>
-      <c r="D6" s="504"/>
-      <c r="E6" s="505"/>
-      <c r="F6" s="506"/>
-      <c r="G6" s="507"/>
-      <c r="H6" s="508"/>
-      <c r="I6" s="509"/>
-      <c r="J6" s="510"/>
-      <c r="K6" s="511"/>
-      <c r="L6" s="512"/>
-      <c r="M6" s="513"/>
-      <c r="N6" s="514"/>
-      <c r="O6" t="s" s="515">
+      <c r="D6" s="540"/>
+      <c r="E6" s="541"/>
+      <c r="F6" s="542"/>
+      <c r="G6" s="543"/>
+      <c r="H6" s="544"/>
+      <c r="I6" s="545"/>
+      <c r="J6" s="546"/>
+      <c r="K6" s="547"/>
+      <c r="L6" s="548"/>
+      <c r="M6" s="549"/>
+      <c r="N6" s="550"/>
+      <c r="O6" t="s" s="551">
         <v>8</v>
       </c>
-      <c r="P6" s="516"/>
-      <c r="Q6" s="517"/>
-      <c r="R6" s="518"/>
-      <c r="S6" s="519"/>
-      <c r="T6" s="520"/>
-      <c r="U6" s="521"/>
-      <c r="V6" s="522"/>
-      <c r="W6" s="523"/>
-      <c r="X6" s="524"/>
-      <c r="Y6" s="525"/>
-      <c r="Z6" s="526"/>
-      <c r="AA6" t="s" s="527">
+      <c r="P6" s="552"/>
+      <c r="Q6" s="553"/>
+      <c r="R6" s="554"/>
+      <c r="S6" s="555"/>
+      <c r="T6" s="556"/>
+      <c r="U6" s="557"/>
+      <c r="V6" s="558"/>
+      <c r="W6" s="559"/>
+      <c r="X6" s="560"/>
+      <c r="Y6" s="561"/>
+      <c r="Z6" s="562"/>
+      <c r="AA6" t="s" s="563">
         <v>9</v>
       </c>
-      <c r="AB6" s="528"/>
-      <c r="AC6" s="529"/>
-      <c r="AD6" s="530"/>
-      <c r="AE6" s="531"/>
-      <c r="AF6" s="532"/>
-      <c r="AG6" s="533"/>
-      <c r="AH6" s="534"/>
-      <c r="AI6" s="535"/>
-      <c r="AJ6" s="536"/>
-      <c r="AK6" s="537"/>
-      <c r="AL6" s="538"/>
-      <c r="AM6" t="s" s="539">
+      <c r="AB6" s="564"/>
+      <c r="AC6" s="565"/>
+      <c r="AD6" s="566"/>
+      <c r="AE6" s="567"/>
+      <c r="AF6" s="568"/>
+      <c r="AG6" s="569"/>
+      <c r="AH6" s="570"/>
+      <c r="AI6" s="571"/>
+      <c r="AJ6" s="572"/>
+      <c r="AK6" s="573"/>
+      <c r="AL6" s="574"/>
+      <c r="AM6" t="s" s="575">
         <v>10</v>
       </c>
-      <c r="AN6" s="540"/>
-      <c r="AO6" s="541"/>
-      <c r="AP6" s="542"/>
-      <c r="AQ6" s="543"/>
-      <c r="AR6" s="544"/>
-      <c r="AS6" s="545"/>
-      <c r="AT6" s="546"/>
-      <c r="AU6" s="547"/>
-      <c r="AV6" s="548"/>
-      <c r="AW6" s="549"/>
-      <c r="AX6" s="550"/>
-      <c r="AY6" t="s" s="551">
+      <c r="AN6" s="576"/>
+      <c r="AO6" s="577"/>
+      <c r="AP6" s="578"/>
+      <c r="AQ6" s="579"/>
+      <c r="AR6" s="580"/>
+      <c r="AS6" s="581"/>
+      <c r="AT6" s="582"/>
+      <c r="AU6" s="583"/>
+      <c r="AV6" s="584"/>
+      <c r="AW6" s="585"/>
+      <c r="AX6" s="586"/>
+      <c r="AY6" t="s" s="587">
         <v>11</v>
       </c>
-      <c r="AZ6" s="552"/>
-      <c r="BA6" s="553"/>
-      <c r="BB6" s="554"/>
-      <c r="BC6" s="555"/>
-      <c r="BD6" s="556"/>
-      <c r="BE6" s="557"/>
-      <c r="BF6" s="558"/>
-      <c r="BG6" s="559"/>
-      <c r="BH6" s="560"/>
-      <c r="BI6" s="561"/>
-      <c r="BJ6" s="562"/>
-      <c r="BK6" t="s" s="563">
+      <c r="AZ6" s="588"/>
+      <c r="BA6" s="589"/>
+      <c r="BB6" s="590"/>
+      <c r="BC6" s="591"/>
+      <c r="BD6" s="592"/>
+      <c r="BE6" s="593"/>
+      <c r="BF6" s="594"/>
+      <c r="BG6" s="595"/>
+      <c r="BH6" s="596"/>
+      <c r="BI6" s="597"/>
+      <c r="BJ6" s="598"/>
+      <c r="BK6" t="s" s="599">
         <v>12</v>
       </c>
-      <c r="BL6" s="564"/>
-      <c r="BM6" s="565"/>
-      <c r="BN6" s="566"/>
-      <c r="BO6" s="567"/>
-      <c r="BP6" s="568"/>
-      <c r="BQ6" s="569"/>
-      <c r="BR6" s="570"/>
-      <c r="BS6" s="571"/>
-      <c r="BT6" s="572"/>
-      <c r="BU6" s="573"/>
-      <c r="BV6" s="574"/>
-      <c r="BW6" t="s" s="575">
+      <c r="BL6" s="600"/>
+      <c r="BM6" s="601"/>
+      <c r="BN6" s="602"/>
+      <c r="BO6" s="603"/>
+      <c r="BP6" s="604"/>
+      <c r="BQ6" s="605"/>
+      <c r="BR6" s="606"/>
+      <c r="BS6" s="607"/>
+      <c r="BT6" s="608"/>
+      <c r="BU6" s="609"/>
+      <c r="BV6" s="610"/>
+      <c r="BW6" t="s" s="611">
         <v>13</v>
       </c>
-      <c r="BX6" s="576"/>
-      <c r="BY6" s="577"/>
-      <c r="BZ6" s="578"/>
-      <c r="CA6" s="579"/>
-      <c r="CB6" s="580"/>
-      <c r="CC6" s="581"/>
-      <c r="CD6" s="582"/>
-      <c r="CE6" s="583"/>
-      <c r="CF6" s="584"/>
-      <c r="CG6" s="585"/>
-      <c r="CH6" s="586"/>
-      <c r="CI6" t="s" s="587">
+      <c r="BX6" s="612"/>
+      <c r="BY6" s="613"/>
+      <c r="BZ6" s="614"/>
+      <c r="CA6" s="615"/>
+      <c r="CB6" s="616"/>
+      <c r="CC6" s="617"/>
+      <c r="CD6" s="618"/>
+      <c r="CE6" s="619"/>
+      <c r="CF6" s="620"/>
+      <c r="CG6" s="621"/>
+      <c r="CH6" s="622"/>
+      <c r="CI6" t="s" s="623">
         <v>14</v>
       </c>
-      <c r="CJ6" s="588"/>
-      <c r="CK6" s="589"/>
-      <c r="CL6" s="590"/>
-      <c r="CM6" s="591"/>
-      <c r="CN6" s="592"/>
-      <c r="CO6" s="593"/>
-      <c r="CP6" s="594"/>
-      <c r="CQ6" s="595"/>
-      <c r="CR6" s="596"/>
-      <c r="CS6" s="597"/>
-      <c r="CT6" s="598"/>
-      <c r="CU6" t="s" s="599">
+      <c r="CJ6" s="624"/>
+      <c r="CK6" s="625"/>
+      <c r="CL6" s="626"/>
+      <c r="CM6" s="627"/>
+      <c r="CN6" s="628"/>
+      <c r="CO6" s="629"/>
+      <c r="CP6" s="630"/>
+      <c r="CQ6" s="631"/>
+      <c r="CR6" s="632"/>
+      <c r="CS6" s="633"/>
+      <c r="CT6" s="634"/>
+      <c r="CU6" t="s" s="635">
         <v>15</v>
       </c>
-      <c r="CV6" s="600"/>
-      <c r="CW6" s="601"/>
-      <c r="CX6" s="602"/>
-      <c r="CY6" s="603"/>
-      <c r="CZ6" s="604"/>
-      <c r="DA6" s="605"/>
-      <c r="DB6" s="606"/>
-      <c r="DC6" s="607"/>
-      <c r="DD6" s="608"/>
-      <c r="DE6" s="609"/>
-      <c r="DF6" s="610"/>
-      <c r="DG6" t="s" s="611">
+      <c r="CV6" s="636"/>
+      <c r="CW6" s="637"/>
+      <c r="CX6" s="638"/>
+      <c r="CY6" s="639"/>
+      <c r="CZ6" s="640"/>
+      <c r="DA6" s="641"/>
+      <c r="DB6" s="642"/>
+      <c r="DC6" s="643"/>
+      <c r="DD6" s="644"/>
+      <c r="DE6" s="645"/>
+      <c r="DF6" s="646"/>
+      <c r="DG6" t="s" s="647">
         <v>16</v>
       </c>
-      <c r="DH6" s="612"/>
-      <c r="DI6" s="613"/>
-      <c r="DJ6" s="614"/>
-      <c r="DK6" s="615"/>
-      <c r="DL6" s="616"/>
-      <c r="DM6" s="617"/>
-      <c r="DN6" s="618"/>
-      <c r="DO6" s="619"/>
-      <c r="DP6" s="620"/>
-      <c r="DQ6" s="621"/>
-      <c r="DR6" s="622"/>
-      <c r="DS6" t="s" s="623">
+      <c r="DH6" s="648"/>
+      <c r="DI6" s="649"/>
+      <c r="DJ6" s="650"/>
+      <c r="DK6" s="651"/>
+      <c r="DL6" s="652"/>
+      <c r="DM6" s="653"/>
+      <c r="DN6" s="654"/>
+      <c r="DO6" s="655"/>
+      <c r="DP6" s="656"/>
+      <c r="DQ6" s="657"/>
+      <c r="DR6" s="658"/>
+      <c r="DS6" t="s" s="659">
         <v>17</v>
       </c>
-      <c r="DT6" s="624"/>
-      <c r="DU6" s="625"/>
-      <c r="DV6" s="626"/>
-      <c r="DW6" s="627"/>
-      <c r="DX6" s="628"/>
-      <c r="DY6" s="629"/>
-      <c r="DZ6" s="630"/>
-      <c r="EA6" s="631"/>
-      <c r="EB6" s="632"/>
-      <c r="EC6" s="633"/>
-      <c r="ED6" s="634"/>
-      <c r="EE6" t="s" s="635">
+      <c r="DT6" s="660"/>
+      <c r="DU6" s="661"/>
+      <c r="DV6" s="662"/>
+      <c r="DW6" s="663"/>
+      <c r="DX6" s="664"/>
+      <c r="DY6" s="665"/>
+      <c r="DZ6" s="666"/>
+      <c r="EA6" s="667"/>
+      <c r="EB6" s="668"/>
+      <c r="EC6" s="669"/>
+      <c r="ED6" s="670"/>
+      <c r="EE6" t="s" s="671">
         <v>18</v>
       </c>
-      <c r="EF6" s="636"/>
-      <c r="EG6" s="637"/>
-      <c r="EH6" s="638"/>
-      <c r="EI6" s="639"/>
-      <c r="EJ6" s="640"/>
-      <c r="EK6" s="641"/>
-      <c r="EL6" s="642"/>
-      <c r="EM6" s="643"/>
-      <c r="EN6" s="644"/>
-      <c r="EO6" s="645"/>
-      <c r="EP6" s="646"/>
-      <c r="EQ6" t="s" s="647">
+      <c r="EF6" s="672"/>
+      <c r="EG6" s="673"/>
+      <c r="EH6" s="674"/>
+      <c r="EI6" s="675"/>
+      <c r="EJ6" s="676"/>
+      <c r="EK6" s="677"/>
+      <c r="EL6" s="678"/>
+      <c r="EM6" s="679"/>
+      <c r="EN6" s="680"/>
+      <c r="EO6" s="681"/>
+      <c r="EP6" s="682"/>
+      <c r="EQ6" t="s" s="683">
         <v>19</v>
       </c>
-      <c r="ER6" s="648"/>
-      <c r="ES6" s="649"/>
-      <c r="ET6" s="650"/>
-      <c r="EU6" s="651"/>
-      <c r="EV6" s="652"/>
-      <c r="EW6" s="653"/>
-      <c r="EX6" s="654"/>
-      <c r="EY6" s="655"/>
-      <c r="EZ6" s="656"/>
-      <c r="FA6" s="657"/>
-      <c r="FB6" s="658"/>
+      <c r="ER6" s="684"/>
+      <c r="ES6" s="685"/>
+      <c r="ET6" s="686"/>
+      <c r="EU6" s="687"/>
+      <c r="EV6" s="688"/>
+      <c r="EW6" s="689"/>
+      <c r="EX6" s="690"/>
+      <c r="EY6" s="691"/>
+      <c r="EZ6" s="692"/>
+      <c r="FA6" s="693"/>
+      <c r="FB6" s="694"/>
+      <c r="FC6" t="s" s="695">
+        <v>20</v>
+      </c>
+      <c r="FD6" s="696"/>
+      <c r="FE6" s="697"/>
+      <c r="FF6" s="698"/>
+      <c r="FG6" s="699"/>
+      <c r="FH6" s="700"/>
+      <c r="FI6" s="701"/>
+      <c r="FJ6" s="702"/>
+      <c r="FK6" s="703"/>
+      <c r="FL6" s="704"/>
+      <c r="FM6" s="705"/>
+      <c r="FN6" s="706"/>
     </row>
     <row r="7">
-      <c r="A7" s="659"/>
-      <c r="B7" s="660"/>
-      <c r="C7" t="s" s="661">
-        <v>20</v>
-      </c>
-      <c r="D7" s="662"/>
-      <c r="E7" s="663"/>
-      <c r="F7" s="664"/>
-      <c r="G7" s="665"/>
-      <c r="H7" s="666"/>
-      <c r="I7" s="667"/>
-      <c r="J7" s="668"/>
-      <c r="K7" s="669"/>
-      <c r="L7" s="670"/>
-      <c r="M7" s="671"/>
-      <c r="N7" s="672"/>
-      <c r="O7" t="s" s="673">
-        <v>20</v>
-      </c>
-      <c r="P7" s="674"/>
-      <c r="Q7" s="675"/>
-      <c r="R7" s="676"/>
-      <c r="S7" s="677"/>
-      <c r="T7" s="678"/>
-      <c r="U7" s="679"/>
-      <c r="V7" s="680"/>
-      <c r="W7" s="681"/>
-      <c r="X7" s="682"/>
-      <c r="Y7" s="683"/>
-      <c r="Z7" s="684"/>
-      <c r="AA7" t="s" s="685">
-        <v>20</v>
-      </c>
-      <c r="AB7" s="686"/>
-      <c r="AC7" s="687"/>
-      <c r="AD7" s="688"/>
-      <c r="AE7" s="689"/>
-      <c r="AF7" s="690"/>
-      <c r="AG7" s="691"/>
-      <c r="AH7" s="692"/>
-      <c r="AI7" s="693"/>
-      <c r="AJ7" s="694"/>
-      <c r="AK7" s="695"/>
-      <c r="AL7" s="696"/>
-      <c r="AM7" t="s" s="697">
-        <v>20</v>
-      </c>
-      <c r="AN7" s="698"/>
-      <c r="AO7" s="699"/>
-      <c r="AP7" s="700"/>
-      <c r="AQ7" s="701"/>
-      <c r="AR7" s="702"/>
-      <c r="AS7" s="703"/>
-      <c r="AT7" s="704"/>
-      <c r="AU7" s="705"/>
-      <c r="AV7" s="706"/>
-      <c r="AW7" s="707"/>
-      <c r="AX7" s="708"/>
-      <c r="AY7" t="s" s="709">
-        <v>20</v>
-      </c>
-      <c r="AZ7" s="710"/>
-      <c r="BA7" s="711"/>
-      <c r="BB7" s="712"/>
-      <c r="BC7" s="713"/>
-      <c r="BD7" s="714"/>
-      <c r="BE7" s="715"/>
-      <c r="BF7" s="716"/>
-      <c r="BG7" s="717"/>
-      <c r="BH7" s="718"/>
-      <c r="BI7" s="719"/>
-      <c r="BJ7" s="720"/>
-      <c r="BK7" t="s" s="721">
-        <v>20</v>
-      </c>
-      <c r="BL7" s="722"/>
-      <c r="BM7" s="723"/>
-      <c r="BN7" s="724"/>
-      <c r="BO7" s="725"/>
-      <c r="BP7" s="726"/>
-      <c r="BQ7" s="727"/>
-      <c r="BR7" s="728"/>
-      <c r="BS7" s="729"/>
-      <c r="BT7" s="730"/>
-      <c r="BU7" s="731"/>
-      <c r="BV7" s="732"/>
-      <c r="BW7" t="s" s="733">
-        <v>20</v>
-      </c>
-      <c r="BX7" s="734"/>
-      <c r="BY7" s="735"/>
-      <c r="BZ7" s="736"/>
-      <c r="CA7" s="737"/>
-      <c r="CB7" s="738"/>
-      <c r="CC7" s="739"/>
-      <c r="CD7" s="740"/>
-      <c r="CE7" s="741"/>
-      <c r="CF7" s="742"/>
-      <c r="CG7" s="743"/>
-      <c r="CH7" s="744"/>
-      <c r="CI7" t="s" s="745">
-        <v>20</v>
-      </c>
-      <c r="CJ7" s="746"/>
-      <c r="CK7" s="747"/>
-      <c r="CL7" s="748"/>
-      <c r="CM7" s="749"/>
-      <c r="CN7" s="750"/>
-      <c r="CO7" s="751"/>
-      <c r="CP7" s="752"/>
-      <c r="CQ7" s="753"/>
-      <c r="CR7" s="754"/>
-      <c r="CS7" s="755"/>
-      <c r="CT7" s="756"/>
-      <c r="CU7" t="s" s="757">
-        <v>20</v>
-      </c>
-      <c r="CV7" s="758"/>
-      <c r="CW7" s="759"/>
-      <c r="CX7" s="760"/>
-      <c r="CY7" s="761"/>
-      <c r="CZ7" s="762"/>
-      <c r="DA7" s="763"/>
-      <c r="DB7" s="764"/>
-      <c r="DC7" s="765"/>
-      <c r="DD7" s="766"/>
-      <c r="DE7" s="767"/>
-      <c r="DF7" s="768"/>
-      <c r="DG7" t="s" s="769">
-        <v>20</v>
-      </c>
-      <c r="DH7" s="770"/>
-      <c r="DI7" s="771"/>
-      <c r="DJ7" s="772"/>
-      <c r="DK7" s="773"/>
-      <c r="DL7" s="774"/>
-      <c r="DM7" s="775"/>
-      <c r="DN7" s="776"/>
-      <c r="DO7" s="777"/>
-      <c r="DP7" s="778"/>
-      <c r="DQ7" s="779"/>
-      <c r="DR7" s="780"/>
-      <c r="DS7" t="s" s="781">
-        <v>20</v>
-      </c>
-      <c r="DT7" s="782"/>
-      <c r="DU7" s="783"/>
-      <c r="DV7" s="784"/>
-      <c r="DW7" s="785"/>
-      <c r="DX7" s="786"/>
-      <c r="DY7" s="787"/>
-      <c r="DZ7" s="788"/>
-      <c r="EA7" s="789"/>
-      <c r="EB7" s="790"/>
-      <c r="EC7" s="791"/>
-      <c r="ED7" s="792"/>
-      <c r="EE7" t="s" s="793">
-        <v>20</v>
-      </c>
-      <c r="EF7" s="794"/>
-      <c r="EG7" s="795"/>
-      <c r="EH7" s="796"/>
-      <c r="EI7" s="797"/>
-      <c r="EJ7" s="798"/>
-      <c r="EK7" s="799"/>
-      <c r="EL7" s="800"/>
-      <c r="EM7" s="801"/>
-      <c r="EN7" s="802"/>
-      <c r="EO7" s="803"/>
-      <c r="EP7" s="804"/>
-      <c r="EQ7" t="s" s="805">
-        <v>20</v>
-      </c>
-      <c r="ER7" s="806"/>
-      <c r="ES7" s="807"/>
-      <c r="ET7" s="808"/>
-      <c r="EU7" s="809"/>
-      <c r="EV7" s="810"/>
-      <c r="EW7" s="811"/>
-      <c r="EX7" s="812"/>
-      <c r="EY7" s="813"/>
-      <c r="EZ7" s="814"/>
-      <c r="FA7" s="815"/>
-      <c r="FB7" s="816"/>
+      <c r="A7" s="707"/>
+      <c r="B7" s="708"/>
+      <c r="C7" t="s" s="709">
+        <v>21</v>
+      </c>
+      <c r="D7" s="710"/>
+      <c r="E7" s="711"/>
+      <c r="F7" s="712"/>
+      <c r="G7" s="713"/>
+      <c r="H7" s="714"/>
+      <c r="I7" s="715"/>
+      <c r="J7" s="716"/>
+      <c r="K7" s="717"/>
+      <c r="L7" s="718"/>
+      <c r="M7" s="719"/>
+      <c r="N7" s="720"/>
+      <c r="O7" t="s" s="721">
+        <v>21</v>
+      </c>
+      <c r="P7" s="722"/>
+      <c r="Q7" s="723"/>
+      <c r="R7" s="724"/>
+      <c r="S7" s="725"/>
+      <c r="T7" s="726"/>
+      <c r="U7" s="727"/>
+      <c r="V7" s="728"/>
+      <c r="W7" s="729"/>
+      <c r="X7" s="730"/>
+      <c r="Y7" s="731"/>
+      <c r="Z7" s="732"/>
+      <c r="AA7" t="s" s="733">
+        <v>21</v>
+      </c>
+      <c r="AB7" s="734"/>
+      <c r="AC7" s="735"/>
+      <c r="AD7" s="736"/>
+      <c r="AE7" s="737"/>
+      <c r="AF7" s="738"/>
+      <c r="AG7" s="739"/>
+      <c r="AH7" s="740"/>
+      <c r="AI7" s="741"/>
+      <c r="AJ7" s="742"/>
+      <c r="AK7" s="743"/>
+      <c r="AL7" s="744"/>
+      <c r="AM7" t="s" s="745">
+        <v>21</v>
+      </c>
+      <c r="AN7" s="746"/>
+      <c r="AO7" s="747"/>
+      <c r="AP7" s="748"/>
+      <c r="AQ7" s="749"/>
+      <c r="AR7" s="750"/>
+      <c r="AS7" s="751"/>
+      <c r="AT7" s="752"/>
+      <c r="AU7" s="753"/>
+      <c r="AV7" s="754"/>
+      <c r="AW7" s="755"/>
+      <c r="AX7" s="756"/>
+      <c r="AY7" t="s" s="757">
+        <v>21</v>
+      </c>
+      <c r="AZ7" s="758"/>
+      <c r="BA7" s="759"/>
+      <c r="BB7" s="760"/>
+      <c r="BC7" s="761"/>
+      <c r="BD7" s="762"/>
+      <c r="BE7" s="763"/>
+      <c r="BF7" s="764"/>
+      <c r="BG7" s="765"/>
+      <c r="BH7" s="766"/>
+      <c r="BI7" s="767"/>
+      <c r="BJ7" s="768"/>
+      <c r="BK7" t="s" s="769">
+        <v>21</v>
+      </c>
+      <c r="BL7" s="770"/>
+      <c r="BM7" s="771"/>
+      <c r="BN7" s="772"/>
+      <c r="BO7" s="773"/>
+      <c r="BP7" s="774"/>
+      <c r="BQ7" s="775"/>
+      <c r="BR7" s="776"/>
+      <c r="BS7" s="777"/>
+      <c r="BT7" s="778"/>
+      <c r="BU7" s="779"/>
+      <c r="BV7" s="780"/>
+      <c r="BW7" t="s" s="781">
+        <v>21</v>
+      </c>
+      <c r="BX7" s="782"/>
+      <c r="BY7" s="783"/>
+      <c r="BZ7" s="784"/>
+      <c r="CA7" s="785"/>
+      <c r="CB7" s="786"/>
+      <c r="CC7" s="787"/>
+      <c r="CD7" s="788"/>
+      <c r="CE7" s="789"/>
+      <c r="CF7" s="790"/>
+      <c r="CG7" s="791"/>
+      <c r="CH7" s="792"/>
+      <c r="CI7" t="s" s="793">
+        <v>21</v>
+      </c>
+      <c r="CJ7" s="794"/>
+      <c r="CK7" s="795"/>
+      <c r="CL7" s="796"/>
+      <c r="CM7" s="797"/>
+      <c r="CN7" s="798"/>
+      <c r="CO7" s="799"/>
+      <c r="CP7" s="800"/>
+      <c r="CQ7" s="801"/>
+      <c r="CR7" s="802"/>
+      <c r="CS7" s="803"/>
+      <c r="CT7" s="804"/>
+      <c r="CU7" t="s" s="805">
+        <v>21</v>
+      </c>
+      <c r="CV7" s="806"/>
+      <c r="CW7" s="807"/>
+      <c r="CX7" s="808"/>
+      <c r="CY7" s="809"/>
+      <c r="CZ7" s="810"/>
+      <c r="DA7" s="811"/>
+      <c r="DB7" s="812"/>
+      <c r="DC7" s="813"/>
+      <c r="DD7" s="814"/>
+      <c r="DE7" s="815"/>
+      <c r="DF7" s="816"/>
+      <c r="DG7" t="s" s="817">
+        <v>21</v>
+      </c>
+      <c r="DH7" s="818"/>
+      <c r="DI7" s="819"/>
+      <c r="DJ7" s="820"/>
+      <c r="DK7" s="821"/>
+      <c r="DL7" s="822"/>
+      <c r="DM7" s="823"/>
+      <c r="DN7" s="824"/>
+      <c r="DO7" s="825"/>
+      <c r="DP7" s="826"/>
+      <c r="DQ7" s="827"/>
+      <c r="DR7" s="828"/>
+      <c r="DS7" t="s" s="829">
+        <v>21</v>
+      </c>
+      <c r="DT7" s="830"/>
+      <c r="DU7" s="831"/>
+      <c r="DV7" s="832"/>
+      <c r="DW7" s="833"/>
+      <c r="DX7" s="834"/>
+      <c r="DY7" s="835"/>
+      <c r="DZ7" s="836"/>
+      <c r="EA7" s="837"/>
+      <c r="EB7" s="838"/>
+      <c r="EC7" s="839"/>
+      <c r="ED7" s="840"/>
+      <c r="EE7" t="s" s="841">
+        <v>21</v>
+      </c>
+      <c r="EF7" s="842"/>
+      <c r="EG7" s="843"/>
+      <c r="EH7" s="844"/>
+      <c r="EI7" s="845"/>
+      <c r="EJ7" s="846"/>
+      <c r="EK7" s="847"/>
+      <c r="EL7" s="848"/>
+      <c r="EM7" s="849"/>
+      <c r="EN7" s="850"/>
+      <c r="EO7" s="851"/>
+      <c r="EP7" s="852"/>
+      <c r="EQ7" t="s" s="853">
+        <v>21</v>
+      </c>
+      <c r="ER7" s="854"/>
+      <c r="ES7" s="855"/>
+      <c r="ET7" s="856"/>
+      <c r="EU7" s="857"/>
+      <c r="EV7" s="858"/>
+      <c r="EW7" s="859"/>
+      <c r="EX7" s="860"/>
+      <c r="EY7" s="861"/>
+      <c r="EZ7" s="862"/>
+      <c r="FA7" s="863"/>
+      <c r="FB7" s="864"/>
+      <c r="FC7" t="s" s="865">
+        <v>21</v>
+      </c>
+      <c r="FD7" s="866"/>
+      <c r="FE7" s="867"/>
+      <c r="FF7" s="868"/>
+      <c r="FG7" s="869"/>
+      <c r="FH7" s="870"/>
+      <c r="FI7" s="871"/>
+      <c r="FJ7" s="872"/>
+      <c r="FK7" s="873"/>
+      <c r="FL7" s="874"/>
+      <c r="FM7" s="875"/>
+      <c r="FN7" s="876"/>
     </row>
     <row r="8">
-      <c r="A8" s="817"/>
-      <c r="B8" s="818"/>
-      <c r="C8" t="s" s="819">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s" s="820">
+      <c r="A8" s="877"/>
+      <c r="B8" s="878"/>
+      <c r="C8" t="s" s="879">
         <v>22</v>
       </c>
-      <c r="E8" t="s" s="821">
+      <c r="D8" t="s" s="880">
         <v>23</v>
       </c>
-      <c r="F8" t="s" s="822">
+      <c r="E8" t="s" s="881">
         <v>24</v>
       </c>
-      <c r="G8" t="s" s="823">
+      <c r="F8" t="s" s="882">
         <v>25</v>
       </c>
-      <c r="H8" t="s" s="824">
+      <c r="G8" t="s" s="883">
         <v>26</v>
       </c>
-      <c r="I8" t="s" s="825">
+      <c r="H8" t="s" s="884">
         <v>27</v>
       </c>
-      <c r="J8" t="s" s="826">
+      <c r="I8" t="s" s="885">
         <v>28</v>
       </c>
-      <c r="K8" t="s" s="827">
+      <c r="J8" t="s" s="886">
         <v>29</v>
       </c>
-      <c r="L8" t="s" s="828">
+      <c r="K8" t="s" s="887">
         <v>30</v>
       </c>
-      <c r="M8" t="s" s="829">
+      <c r="L8" t="s" s="888">
         <v>31</v>
       </c>
-      <c r="N8" t="s" s="830">
+      <c r="M8" t="s" s="889">
         <v>32</v>
       </c>
-      <c r="O8" t="s" s="831">
-        <v>21</v>
-      </c>
-      <c r="P8" t="s" s="832">
+      <c r="N8" t="s" s="890">
+        <v>33</v>
+      </c>
+      <c r="O8" t="s" s="891">
         <v>22</v>
       </c>
-      <c r="Q8" t="s" s="833">
+      <c r="P8" t="s" s="892">
         <v>23</v>
       </c>
-      <c r="R8" t="s" s="834">
+      <c r="Q8" t="s" s="893">
         <v>24</v>
       </c>
-      <c r="S8" t="s" s="835">
+      <c r="R8" t="s" s="894">
         <v>25</v>
       </c>
-      <c r="T8" t="s" s="836">
+      <c r="S8" t="s" s="895">
         <v>26</v>
       </c>
-      <c r="U8" t="s" s="837">
+      <c r="T8" t="s" s="896">
         <v>27</v>
       </c>
-      <c r="V8" t="s" s="838">
+      <c r="U8" t="s" s="897">
         <v>28</v>
       </c>
-      <c r="W8" t="s" s="839">
+      <c r="V8" t="s" s="898">
         <v>29</v>
       </c>
-      <c r="X8" t="s" s="840">
+      <c r="W8" t="s" s="899">
         <v>30</v>
       </c>
-      <c r="Y8" t="s" s="841">
+      <c r="X8" t="s" s="900">
         <v>31</v>
       </c>
-      <c r="Z8" t="s" s="842">
+      <c r="Y8" t="s" s="901">
         <v>32</v>
       </c>
-      <c r="AA8" t="s" s="843">
-        <v>21</v>
-      </c>
-      <c r="AB8" t="s" s="844">
+      <c r="Z8" t="s" s="902">
+        <v>33</v>
+      </c>
+      <c r="AA8" t="s" s="903">
         <v>22</v>
       </c>
-      <c r="AC8" t="s" s="845">
+      <c r="AB8" t="s" s="904">
         <v>23</v>
       </c>
-      <c r="AD8" t="s" s="846">
+      <c r="AC8" t="s" s="905">
         <v>24</v>
       </c>
-      <c r="AE8" t="s" s="847">
+      <c r="AD8" t="s" s="906">
         <v>25</v>
       </c>
-      <c r="AF8" t="s" s="848">
+      <c r="AE8" t="s" s="907">
         <v>26</v>
       </c>
-      <c r="AG8" t="s" s="849">
+      <c r="AF8" t="s" s="908">
         <v>27</v>
       </c>
-      <c r="AH8" t="s" s="850">
+      <c r="AG8" t="s" s="909">
         <v>28</v>
       </c>
-      <c r="AI8" t="s" s="851">
+      <c r="AH8" t="s" s="910">
         <v>29</v>
       </c>
-      <c r="AJ8" t="s" s="852">
+      <c r="AI8" t="s" s="911">
         <v>30</v>
       </c>
-      <c r="AK8" t="s" s="853">
+      <c r="AJ8" t="s" s="912">
         <v>31</v>
       </c>
-      <c r="AL8" t="s" s="854">
+      <c r="AK8" t="s" s="913">
         <v>32</v>
       </c>
-      <c r="AM8" t="s" s="855">
-        <v>21</v>
-      </c>
-      <c r="AN8" t="s" s="856">
+      <c r="AL8" t="s" s="914">
+        <v>33</v>
+      </c>
+      <c r="AM8" t="s" s="915">
         <v>22</v>
       </c>
-      <c r="AO8" t="s" s="857">
+      <c r="AN8" t="s" s="916">
         <v>23</v>
       </c>
-      <c r="AP8" t="s" s="858">
+      <c r="AO8" t="s" s="917">
         <v>24</v>
       </c>
-      <c r="AQ8" t="s" s="859">
+      <c r="AP8" t="s" s="918">
         <v>25</v>
       </c>
-      <c r="AR8" t="s" s="860">
+      <c r="AQ8" t="s" s="919">
         <v>26</v>
       </c>
-      <c r="AS8" t="s" s="861">
+      <c r="AR8" t="s" s="920">
         <v>27</v>
       </c>
-      <c r="AT8" t="s" s="862">
+      <c r="AS8" t="s" s="921">
         <v>28</v>
       </c>
-      <c r="AU8" t="s" s="863">
+      <c r="AT8" t="s" s="922">
         <v>29</v>
       </c>
-      <c r="AV8" t="s" s="864">
+      <c r="AU8" t="s" s="923">
         <v>30</v>
       </c>
-      <c r="AW8" t="s" s="865">
+      <c r="AV8" t="s" s="924">
         <v>31</v>
       </c>
-      <c r="AX8" t="s" s="866">
+      <c r="AW8" t="s" s="925">
         <v>32</v>
       </c>
-      <c r="AY8" t="s" s="867">
-        <v>21</v>
-      </c>
-      <c r="AZ8" t="s" s="868">
+      <c r="AX8" t="s" s="926">
+        <v>33</v>
+      </c>
+      <c r="AY8" t="s" s="927">
         <v>22</v>
       </c>
-      <c r="BA8" t="s" s="869">
+      <c r="AZ8" t="s" s="928">
         <v>23</v>
       </c>
-      <c r="BB8" t="s" s="870">
+      <c r="BA8" t="s" s="929">
         <v>24</v>
       </c>
-      <c r="BC8" t="s" s="871">
+      <c r="BB8" t="s" s="930">
         <v>25</v>
       </c>
-      <c r="BD8" t="s" s="872">
+      <c r="BC8" t="s" s="931">
         <v>26</v>
       </c>
-      <c r="BE8" t="s" s="873">
+      <c r="BD8" t="s" s="932">
         <v>27</v>
       </c>
-      <c r="BF8" t="s" s="874">
+      <c r="BE8" t="s" s="933">
         <v>28</v>
       </c>
-      <c r="BG8" t="s" s="875">
+      <c r="BF8" t="s" s="934">
         <v>29</v>
       </c>
-      <c r="BH8" t="s" s="876">
+      <c r="BG8" t="s" s="935">
         <v>30</v>
       </c>
-      <c r="BI8" t="s" s="877">
+      <c r="BH8" t="s" s="936">
         <v>31</v>
       </c>
-      <c r="BJ8" t="s" s="878">
+      <c r="BI8" t="s" s="937">
         <v>32</v>
       </c>
-      <c r="BK8" t="s" s="879">
-        <v>21</v>
-      </c>
-      <c r="BL8" t="s" s="880">
+      <c r="BJ8" t="s" s="938">
+        <v>33</v>
+      </c>
+      <c r="BK8" t="s" s="939">
         <v>22</v>
       </c>
-      <c r="BM8" t="s" s="881">
+      <c r="BL8" t="s" s="940">
         <v>23</v>
       </c>
-      <c r="BN8" t="s" s="882">
+      <c r="BM8" t="s" s="941">
         <v>24</v>
       </c>
-      <c r="BO8" t="s" s="883">
+      <c r="BN8" t="s" s="942">
         <v>25</v>
       </c>
-      <c r="BP8" t="s" s="884">
+      <c r="BO8" t="s" s="943">
         <v>26</v>
       </c>
-      <c r="BQ8" t="s" s="885">
+      <c r="BP8" t="s" s="944">
         <v>27</v>
       </c>
-      <c r="BR8" t="s" s="886">
+      <c r="BQ8" t="s" s="945">
         <v>28</v>
       </c>
-      <c r="BS8" t="s" s="887">
+      <c r="BR8" t="s" s="946">
         <v>29</v>
       </c>
-      <c r="BT8" t="s" s="888">
+      <c r="BS8" t="s" s="947">
         <v>30</v>
       </c>
-      <c r="BU8" t="s" s="889">
+      <c r="BT8" t="s" s="948">
         <v>31</v>
       </c>
-      <c r="BV8" t="s" s="890">
+      <c r="BU8" t="s" s="949">
         <v>32</v>
       </c>
-      <c r="BW8" t="s" s="891">
-        <v>21</v>
-      </c>
-      <c r="BX8" t="s" s="892">
+      <c r="BV8" t="s" s="950">
+        <v>33</v>
+      </c>
+      <c r="BW8" t="s" s="951">
         <v>22</v>
       </c>
-      <c r="BY8" t="s" s="893">
+      <c r="BX8" t="s" s="952">
         <v>23</v>
       </c>
-      <c r="BZ8" t="s" s="894">
+      <c r="BY8" t="s" s="953">
         <v>24</v>
       </c>
-      <c r="CA8" t="s" s="895">
+      <c r="BZ8" t="s" s="954">
         <v>25</v>
       </c>
-      <c r="CB8" t="s" s="896">
+      <c r="CA8" t="s" s="955">
         <v>26</v>
       </c>
-      <c r="CC8" t="s" s="897">
+      <c r="CB8" t="s" s="956">
         <v>27</v>
       </c>
-      <c r="CD8" t="s" s="898">
+      <c r="CC8" t="s" s="957">
         <v>28</v>
       </c>
-      <c r="CE8" t="s" s="899">
+      <c r="CD8" t="s" s="958">
         <v>29</v>
       </c>
-      <c r="CF8" t="s" s="900">
+      <c r="CE8" t="s" s="959">
         <v>30</v>
       </c>
-      <c r="CG8" t="s" s="901">
+      <c r="CF8" t="s" s="960">
         <v>31</v>
       </c>
-      <c r="CH8" t="s" s="902">
+      <c r="CG8" t="s" s="961">
         <v>32</v>
       </c>
-      <c r="CI8" t="s" s="903">
-        <v>21</v>
-      </c>
-      <c r="CJ8" t="s" s="904">
+      <c r="CH8" t="s" s="962">
+        <v>33</v>
+      </c>
+      <c r="CI8" t="s" s="963">
         <v>22</v>
       </c>
-      <c r="CK8" t="s" s="905">
+      <c r="CJ8" t="s" s="964">
         <v>23</v>
       </c>
-      <c r="CL8" t="s" s="906">
+      <c r="CK8" t="s" s="965">
         <v>24</v>
       </c>
-      <c r="CM8" t="s" s="907">
+      <c r="CL8" t="s" s="966">
         <v>25</v>
       </c>
-      <c r="CN8" t="s" s="908">
+      <c r="CM8" t="s" s="967">
         <v>26</v>
       </c>
-      <c r="CO8" t="s" s="909">
+      <c r="CN8" t="s" s="968">
         <v>27</v>
       </c>
-      <c r="CP8" t="s" s="910">
+      <c r="CO8" t="s" s="969">
         <v>28</v>
       </c>
-      <c r="CQ8" t="s" s="911">
+      <c r="CP8" t="s" s="970">
         <v>29</v>
       </c>
-      <c r="CR8" t="s" s="912">
+      <c r="CQ8" t="s" s="971">
         <v>30</v>
       </c>
-      <c r="CS8" t="s" s="913">
+      <c r="CR8" t="s" s="972">
         <v>31</v>
       </c>
-      <c r="CT8" t="s" s="914">
+      <c r="CS8" t="s" s="973">
         <v>32</v>
       </c>
-      <c r="CU8" t="s" s="915">
-        <v>21</v>
-      </c>
-      <c r="CV8" t="s" s="916">
+      <c r="CT8" t="s" s="974">
+        <v>33</v>
+      </c>
+      <c r="CU8" t="s" s="975">
         <v>22</v>
       </c>
-      <c r="CW8" t="s" s="917">
+      <c r="CV8" t="s" s="976">
         <v>23</v>
       </c>
-      <c r="CX8" t="s" s="918">
+      <c r="CW8" t="s" s="977">
         <v>24</v>
       </c>
-      <c r="CY8" t="s" s="919">
+      <c r="CX8" t="s" s="978">
         <v>25</v>
       </c>
-      <c r="CZ8" t="s" s="920">
+      <c r="CY8" t="s" s="979">
         <v>26</v>
       </c>
-      <c r="DA8" t="s" s="921">
+      <c r="CZ8" t="s" s="980">
         <v>27</v>
       </c>
-      <c r="DB8" t="s" s="922">
+      <c r="DA8" t="s" s="981">
         <v>28</v>
       </c>
-      <c r="DC8" t="s" s="923">
+      <c r="DB8" t="s" s="982">
         <v>29</v>
       </c>
-      <c r="DD8" t="s" s="924">
+      <c r="DC8" t="s" s="983">
         <v>30</v>
       </c>
-      <c r="DE8" t="s" s="925">
+      <c r="DD8" t="s" s="984">
         <v>31</v>
       </c>
-      <c r="DF8" t="s" s="926">
+      <c r="DE8" t="s" s="985">
         <v>32</v>
       </c>
-      <c r="DG8" t="s" s="927">
-        <v>21</v>
-      </c>
-      <c r="DH8" t="s" s="928">
+      <c r="DF8" t="s" s="986">
+        <v>33</v>
+      </c>
+      <c r="DG8" t="s" s="987">
         <v>22</v>
       </c>
-      <c r="DI8" t="s" s="929">
+      <c r="DH8" t="s" s="988">
         <v>23</v>
       </c>
-      <c r="DJ8" t="s" s="930">
+      <c r="DI8" t="s" s="989">
         <v>24</v>
       </c>
-      <c r="DK8" t="s" s="931">
+      <c r="DJ8" t="s" s="990">
         <v>25</v>
       </c>
-      <c r="DL8" t="s" s="932">
+      <c r="DK8" t="s" s="991">
         <v>26</v>
       </c>
-      <c r="DM8" t="s" s="933">
+      <c r="DL8" t="s" s="992">
         <v>27</v>
       </c>
-      <c r="DN8" t="s" s="934">
+      <c r="DM8" t="s" s="993">
         <v>28</v>
       </c>
-      <c r="DO8" t="s" s="935">
+      <c r="DN8" t="s" s="994">
         <v>29</v>
       </c>
-      <c r="DP8" t="s" s="936">
+      <c r="DO8" t="s" s="995">
         <v>30</v>
       </c>
-      <c r="DQ8" t="s" s="937">
+      <c r="DP8" t="s" s="996">
         <v>31</v>
       </c>
-      <c r="DR8" t="s" s="938">
+      <c r="DQ8" t="s" s="997">
         <v>32</v>
       </c>
-      <c r="DS8" t="s" s="939">
-        <v>21</v>
-      </c>
-      <c r="DT8" t="s" s="940">
+      <c r="DR8" t="s" s="998">
+        <v>33</v>
+      </c>
+      <c r="DS8" t="s" s="999">
         <v>22</v>
       </c>
-      <c r="DU8" t="s" s="941">
+      <c r="DT8" t="s" s="1000">
         <v>23</v>
       </c>
-      <c r="DV8" t="s" s="942">
+      <c r="DU8" t="s" s="1001">
         <v>24</v>
       </c>
-      <c r="DW8" t="s" s="943">
+      <c r="DV8" t="s" s="1002">
         <v>25</v>
       </c>
-      <c r="DX8" t="s" s="944">
+      <c r="DW8" t="s" s="1003">
         <v>26</v>
       </c>
-      <c r="DY8" t="s" s="945">
+      <c r="DX8" t="s" s="1004">
         <v>27</v>
       </c>
-      <c r="DZ8" t="s" s="946">
+      <c r="DY8" t="s" s="1005">
         <v>28</v>
       </c>
-      <c r="EA8" t="s" s="947">
+      <c r="DZ8" t="s" s="1006">
         <v>29</v>
       </c>
-      <c r="EB8" t="s" s="948">
+      <c r="EA8" t="s" s="1007">
         <v>30</v>
       </c>
-      <c r="EC8" t="s" s="949">
+      <c r="EB8" t="s" s="1008">
         <v>31</v>
       </c>
-      <c r="ED8" t="s" s="950">
+      <c r="EC8" t="s" s="1009">
         <v>32</v>
       </c>
-      <c r="EE8" t="s" s="951">
-        <v>21</v>
-      </c>
-      <c r="EF8" t="s" s="952">
+      <c r="ED8" t="s" s="1010">
+        <v>33</v>
+      </c>
+      <c r="EE8" t="s" s="1011">
         <v>22</v>
       </c>
-      <c r="EG8" t="s" s="953">
+      <c r="EF8" t="s" s="1012">
         <v>23</v>
       </c>
-      <c r="EH8" t="s" s="954">
+      <c r="EG8" t="s" s="1013">
         <v>24</v>
       </c>
-      <c r="EI8" t="s" s="955">
+      <c r="EH8" t="s" s="1014">
         <v>25</v>
       </c>
-      <c r="EJ8" t="s" s="956">
+      <c r="EI8" t="s" s="1015">
         <v>26</v>
       </c>
-      <c r="EK8" t="s" s="957">
+      <c r="EJ8" t="s" s="1016">
         <v>27</v>
       </c>
-      <c r="EL8" t="s" s="958">
+      <c r="EK8" t="s" s="1017">
         <v>28</v>
       </c>
-      <c r="EM8" t="s" s="959">
+      <c r="EL8" t="s" s="1018">
         <v>29</v>
       </c>
-      <c r="EN8" t="s" s="960">
+      <c r="EM8" t="s" s="1019">
         <v>30</v>
       </c>
-      <c r="EO8" t="s" s="961">
+      <c r="EN8" t="s" s="1020">
         <v>31</v>
       </c>
-      <c r="EP8" t="s" s="962">
+      <c r="EO8" t="s" s="1021">
         <v>32</v>
       </c>
-      <c r="EQ8" t="s" s="963">
-        <v>21</v>
-      </c>
-      <c r="ER8" t="s" s="964">
+      <c r="EP8" t="s" s="1022">
+        <v>33</v>
+      </c>
+      <c r="EQ8" t="s" s="1023">
         <v>22</v>
       </c>
-      <c r="ES8" t="s" s="965">
+      <c r="ER8" t="s" s="1024">
         <v>23</v>
       </c>
-      <c r="ET8" t="s" s="966">
+      <c r="ES8" t="s" s="1025">
         <v>24</v>
       </c>
-      <c r="EU8" t="s" s="967">
+      <c r="ET8" t="s" s="1026">
         <v>25</v>
       </c>
-      <c r="EV8" t="s" s="968">
+      <c r="EU8" t="s" s="1027">
         <v>26</v>
       </c>
-      <c r="EW8" t="s" s="969">
+      <c r="EV8" t="s" s="1028">
         <v>27</v>
       </c>
-      <c r="EX8" t="s" s="970">
+      <c r="EW8" t="s" s="1029">
         <v>28</v>
       </c>
-      <c r="EY8" t="s" s="971">
+      <c r="EX8" t="s" s="1030">
         <v>29</v>
       </c>
-      <c r="EZ8" t="s" s="972">
+      <c r="EY8" t="s" s="1031">
         <v>30</v>
       </c>
-      <c r="FA8" t="s" s="973">
+      <c r="EZ8" t="s" s="1032">
         <v>31</v>
       </c>
-      <c r="FB8" t="s" s="974">
+      <c r="FA8" t="s" s="1033">
         <v>32</v>
+      </c>
+      <c r="FB8" t="s" s="1034">
+        <v>33</v>
+      </c>
+      <c r="FC8" t="s" s="1035">
+        <v>22</v>
+      </c>
+      <c r="FD8" t="s" s="1036">
+        <v>23</v>
+      </c>
+      <c r="FE8" t="s" s="1037">
+        <v>24</v>
+      </c>
+      <c r="FF8" t="s" s="1038">
+        <v>25</v>
+      </c>
+      <c r="FG8" t="s" s="1039">
+        <v>26</v>
+      </c>
+      <c r="FH8" t="s" s="1040">
+        <v>27</v>
+      </c>
+      <c r="FI8" t="s" s="1041">
+        <v>28</v>
+      </c>
+      <c r="FJ8" t="s" s="1042">
+        <v>29</v>
+      </c>
+      <c r="FK8" t="s" s="1043">
+        <v>30</v>
+      </c>
+      <c r="FL8" t="s" s="1044">
+        <v>31</v>
+      </c>
+      <c r="FM8" t="s" s="1045">
+        <v>32</v>
+      </c>
+      <c r="FN8" t="s" s="1046">
+        <v>33</v>
       </c>
     </row>
     <row r="9" ht="33.75" customHeight="true">
       <c r="A9" t="s" s="14">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s" s="13">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" t="n" s="10">
         <v>360799.0</v>
@@ -6221,19 +6588,55 @@
       <c r="EZ10" t="n" s="10">
         <v>527476.0</v>
       </c>
-      <c r="FA10" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="FB10" t="s" s="10">
-        <v>36</v>
+      <c r="FA10" t="n" s="10">
+        <v>526611.0</v>
+      </c>
+      <c r="FB10" t="n" s="10">
+        <v>520309.0</v>
+      </c>
+      <c r="FC10" t="n" s="10">
+        <v>523209.0</v>
+      </c>
+      <c r="FD10" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="FE10" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="FF10" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="FG10" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="FH10" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="FI10" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="FJ10" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="FK10" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="FL10" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="FM10" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="FN10" t="s" s="10">
+        <v>37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="n" s="10">
         <v>19594.0</v>
@@ -6697,41 +7100,77 @@
       <c r="EZ11" t="n" s="10">
         <v>56323.0</v>
       </c>
-      <c r="FA11" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="FB11" t="s" s="10">
-        <v>36</v>
+      <c r="FA11" t="n" s="10">
+        <v>57544.0</v>
+      </c>
+      <c r="FB11" t="n" s="10">
+        <v>41284.0</v>
+      </c>
+      <c r="FC11" t="n" s="10">
+        <v>38156.0</v>
+      </c>
+      <c r="FD11" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="FE11" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="FF11" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="FG11" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="FH11" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="FI11" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="FJ11" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="FK11" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="FL11" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="FM11" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="FN11" t="s" s="10">
+        <v>37</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="12">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A2:FB2"/>
-    <mergeCell ref="A3:FB3"/>
-    <mergeCell ref="A4:FB4"/>
+    <mergeCell ref="A2:FN2"/>
+    <mergeCell ref="A3:FN3"/>
+    <mergeCell ref="A4:FN4"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C5:FB5"/>
+    <mergeCell ref="C5:FN5"/>
     <mergeCell ref="C6:N6"/>
     <mergeCell ref="O6:Z6"/>
     <mergeCell ref="AA6:AL6"/>
@@ -6745,6 +7184,7 @@
     <mergeCell ref="DS6:ED6"/>
     <mergeCell ref="EE6:EP6"/>
     <mergeCell ref="EQ6:FB6"/>
+    <mergeCell ref="FC6:FN6"/>
     <mergeCell ref="C7:N7"/>
     <mergeCell ref="O7:Z7"/>
     <mergeCell ref="AA7:AL7"/>
@@ -6758,12 +7198,13 @@
     <mergeCell ref="DS7:ED7"/>
     <mergeCell ref="EE7:EP7"/>
     <mergeCell ref="EQ7:FB7"/>
-    <mergeCell ref="A9:FB9"/>
-    <mergeCell ref="A1:FB1"/>
+    <mergeCell ref="FC7:FN7"/>
+    <mergeCell ref="A9:FN9"/>
+    <mergeCell ref="A1:FN1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:35:17&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 01.04.22 / 04:11:01&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>